--- a/new_data.xlsx
+++ b/new_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>image_path</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>created_at</t>
         </is>
       </c>
@@ -502,7 +507,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-12-11 17:23:13</t>
+          <t>/images/Pastor_Derrick_Izekor_20251212.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -535,9 +545,10 @@
           <t>BLW Benin Republic Zone B</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -570,9 +581,10 @@
           <t>BLW SA Zone A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -605,9 +617,10 @@
           <t>BLW SA Zone B</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -640,9 +653,10 @@
           <t>BLW Kenya Zone A</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -675,9 +689,10 @@
           <t>BLW Kenya Zone B</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -710,9 +725,10 @@
           <t>BLW UK / Europe Region</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -745,9 +761,10 @@
           <t>BLW Ireland Zone</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -780,9 +797,10 @@
           <t>BLW USA Region 1</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -815,9 +833,10 @@
           <t>BLW USA Region 2</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -850,9 +869,10 @@
           <t>BLW Canada Region</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -885,9 +905,10 @@
           <t>BLW Middle East and North Africa Region</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -920,9 +941,10 @@
           <t>BLW Europe Zone 1 DSP</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -955,9 +977,10 @@
           <t>BLW South Africa Zone G DSP</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -990,9 +1013,10 @@
           <t>BLW Canada Zone DSP</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2025-12-11 17:23:13</t>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:26</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,7 +1082,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20251211_182313_Book1.xlsx</t>
+          <t>20251212_134825_new_data.xlsx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1076,12 +1100,111 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>15 added, 0 duplicates skipped</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-12-11 17:23:13</t>
+          <t>2025-12-12 12:48:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20251212_134830_new_data.xlsx</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0 added, 15 duplicates skipped</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:48:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20251212_135052_new_data.xlsx</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0 added, 15 duplicates skipped</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:50:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20251212_135058_new_data.xlsx</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0 added, 15 duplicates skipped</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:50:58</t>
         </is>
       </c>
     </row>
